--- a/Strategie_wyniki.xlsx
+++ b/Strategie_wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karolina\Desktop\MAGISTERKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7135AAF9-F6E3-4269-AB02-976960FEFF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7119D9FD-56DC-44DF-BC6E-2C6AF062C708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" activeTab="1" xr2:uid="{6B9777E4-D6B0-46C7-88F2-024B1031AAFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{6B9777E4-D6B0-46C7-88F2-024B1031AAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Optymalizacja D" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>OSTRE</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>BB</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>tp</t>
   </si>
 </sst>
 </file>
@@ -1505,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7C5F3F-353A-4B55-8229-4EB0B5802120}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:P148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+      <selection activeCell="P137" sqref="P137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,6 +1684,39 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
+    <row r="131" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P131">
+        <f>0.99+0.99+0.89+0.85+0.95+0.99+0.94+0.96+0.99+0.99</f>
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="132" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O132" t="s">
+        <v>7</v>
+      </c>
+      <c r="P132">
+        <f>P131/10</f>
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O134" t="s">
+        <v>8</v>
+      </c>
+      <c r="P134">
+        <f>0.09+0.01+0.02+0.03+0.02+0.076+0.017+0.06+0.06+0.09</f>
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O136" t="s">
+        <v>9</v>
+      </c>
+      <c r="P136">
+        <f>0.05+0.03+0.05+0.068+0.045+0.085+0.053+0.04+0.03+0.06</f>
+        <v>0.5109999999999999</v>
+      </c>
+    </row>
     <row r="148" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>6</v>

--- a/Strategie_wyniki.xlsx
+++ b/Strategie_wyniki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karolina\Desktop\MAGISTERKA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karolina\Desktop\MAGISTERKA\praca_magisterska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2FFF6A-DD6B-43E1-ACF2-9E53C141378D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CEAB2-1060-42B0-8CB5-16717DAE98A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6B9777E4-D6B0-46C7-88F2-024B1031AAFA}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="5" xr2:uid="{6B9777E4-D6B0-46C7-88F2-024B1031AAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Optymalizacja D" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>OSTRE</t>
   </si>
@@ -64,12 +64,18 @@
   <si>
     <t>S</t>
   </si>
+  <si>
+    <t>średnia</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +87,15 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,11 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2737,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640730E6-38AC-4A4D-A679-3B450067A575}">
   <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
@@ -2974,7 +2990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9FE013-D37D-4AAB-889F-C7BA0ED3CDC3}">
   <dimension ref="A1:AB165"/>
   <sheetViews>
-    <sheetView topLeftCell="D146" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="AO1" zoomScale="80" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -3551,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAD3D5D-407D-4CC1-8639-FF627053748C}">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T150" sqref="T150"/>
     </sheetView>
   </sheetViews>
@@ -3754,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7C5F3F-353A-4B55-8229-4EB0B5802120}">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -3956,15 +3972,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA2EED3-D591-4597-A96B-5113B34CA48D}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T150" sqref="T150"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +3999,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3998,7 +4014,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4013,7 +4029,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4028,7 +4044,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4043,7 +4059,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4058,7 +4074,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4074,6 +4090,161 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0.38</v>
+      </c>
+      <c r="Q9">
+        <v>0.18</v>
+      </c>
+      <c r="R9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0.4</v>
+      </c>
+      <c r="Q10">
+        <v>0.8</v>
+      </c>
+      <c r="R10">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q11">
+        <v>0.9</v>
+      </c>
+      <c r="R11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0.26</v>
+      </c>
+      <c r="Q12">
+        <v>0.23</v>
+      </c>
+      <c r="R12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0.9</v>
+      </c>
+      <c r="Q13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0.13</v>
+      </c>
+      <c r="Q14">
+        <v>0.75</v>
+      </c>
+      <c r="R14">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0.94</v>
+      </c>
+      <c r="Q15">
+        <v>0.89</v>
+      </c>
+      <c r="R15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0.47</v>
+      </c>
+      <c r="Q16">
+        <v>0.43</v>
+      </c>
+      <c r="R16">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0.76</v>
+      </c>
+      <c r="Q17">
+        <v>0.98</v>
+      </c>
+      <c r="R17">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="18" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0.11</v>
+      </c>
+      <c r="Q18">
+        <v>0.69</v>
+      </c>
+      <c r="R18">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="19" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="2">
+        <f>AVERAGE(P9:P18)</f>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" ref="Q19:R19" si="0">AVERAGE(Q9:Q18)</f>
+        <v>0.61299999999999988</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="2">
+        <f>MEDIAN(P9:P18)</f>
+        <v>0.435</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" ref="Q20:R20" si="1">MEDIAN(Q9:Q18)</f>
+        <v>0.72</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.435</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">

--- a/Strategie_wyniki.xlsx
+++ b/Strategie_wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karolina\Desktop\MAGISTERKA\praca_magisterska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CEAB2-1060-42B0-8CB5-16717DAE98A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A87015B-AE60-4D05-A63E-AE8652CA037B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="5" xr2:uid="{6B9777E4-D6B0-46C7-88F2-024B1031AAFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" firstSheet="3" activeTab="3" xr2:uid="{6B9777E4-D6B0-46C7-88F2-024B1031AAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Optymalizacja D" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t>OSTRE</t>
   </si>
@@ -103,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,12 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2014,22 +2021,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>95754</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>124729</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Obraz 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB3A9F2-896F-429C-BAF7-456068900BAD}"/>
+      <xdr:colOff>391090</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>67409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53EE883-8621-2D42-33B9-9AB1216F3830}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,8 +2052,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="1628775"/>
-          <a:ext cx="3610479" cy="6477904"/>
+          <a:off x="0" y="2028825"/>
+          <a:ext cx="4048690" cy="5258534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2058,22 +2065,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>495801</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Obraz 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079B7BB6-C699-730D-3E4A-D1BD4A38B846}"/>
+      <xdr:colOff>429154</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>153129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Obraz 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71979D13-22C3-B077-2634-E1C3F874C7BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,8 +2096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4219575" y="1609725"/>
-          <a:ext cx="3591426" cy="6411220"/>
+          <a:off x="3952875" y="1962150"/>
+          <a:ext cx="3791479" cy="5220429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2102,22 +2109,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>57658</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>19958</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Obraz 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8BDA5C-B668-19A7-B61B-D998E71C1487}"/>
+      <xdr:colOff>248195</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Obraz 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE2707B-771D-DBE8-AB4A-1227244F397F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,8 +2140,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="8524875"/>
-          <a:ext cx="3639058" cy="6506483"/>
+          <a:off x="0" y="8791575"/>
+          <a:ext cx="3905795" cy="5153744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,21 +2154,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>210075</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>134257</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Obraz 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC9ED36-F315-2120-7C47-94058860BA5E}"/>
+      <xdr:colOff>229128</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>153121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Obraz 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC02B1C-78DD-4311-577F-FE786BBC135C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,8 +2184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4371975" y="8458200"/>
-          <a:ext cx="3762900" cy="6496957"/>
+          <a:off x="4371975" y="8858250"/>
+          <a:ext cx="3781953" cy="5163271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2191,21 +2198,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552953</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>67584</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Obraz 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34159084-07E4-C35F-9F02-BD230A21CAA6}"/>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57668</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>19771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Obraz 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6C4298-5423-6487-D53A-8DB809714A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,8 +2228,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15401925"/>
-          <a:ext cx="3600953" cy="6516009"/>
+          <a:off x="0" y="15754350"/>
+          <a:ext cx="3715268" cy="5163271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2234,22 +2241,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>67186</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>58058</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Obraz 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F6F134-DE32-F2CB-02AB-5ED84C11FB9B}"/>
+      <xdr:colOff>248187</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>38825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Obraz 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CA61AF-86D3-FEAC-B6A2-7FC062FB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,8 +2272,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="15401925"/>
-          <a:ext cx="3658111" cy="6506483"/>
+          <a:off x="4324350" y="15744825"/>
+          <a:ext cx="3848637" cy="5191850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38612</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>143596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Obraz 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A3B41D-9B72-ED6B-1AE9-F5591E60AD84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="22907625"/>
+          <a:ext cx="3667637" cy="5163271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>210066</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>95980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Obraz 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E9E3BE-78F4-9A76-BFE9-4ED601A630B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="22793325"/>
+          <a:ext cx="3696216" cy="5229955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2279,38 +2374,38 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>10037</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>181875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Obraz 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7000C5-1973-ACA7-82A8-02C5A21AFB44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="22231350"/>
-          <a:ext cx="3667637" cy="6449325"/>
+      <xdr:colOff>219616</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>29297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Obraz 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5BEC51-7702-A47D-EF87-7CE78AB498BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29622750"/>
+          <a:ext cx="3877216" cy="5172797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2322,66 +2417,868 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>10029</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>162814</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Obraz 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271FA4B4-520D-6700-DE24-1F14045CB7DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4324350" y="22288500"/>
-          <a:ext cx="3610479" cy="6373114"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+      <xdr:colOff>333920</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>67401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Obraz 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FED642-A1F2-981A-2FDD-F8AC5F5627F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="29441775"/>
+          <a:ext cx="3905795" cy="5201376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>162458</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>143600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D990C1DD-9EF3-3A94-E48B-334EC854B3D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1790700"/>
+          <a:ext cx="3820058" cy="5191850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67188</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08A6D82-2879-B76C-C62E-90D831E4AEA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="1657350"/>
+          <a:ext cx="3677163" cy="5210902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257689</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF46F14-027C-BB1F-63D9-F9FDFF249203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="9096375"/>
+          <a:ext cx="3686689" cy="5172797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>248164</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obraz 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1735DE6B-22CD-A269-5000-2D4D2B4E9F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="8858250"/>
+          <a:ext cx="3686689" cy="5220429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67174</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>181686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF22BC7-0188-DE82-B58D-6609D3E3C5F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="16173450"/>
+          <a:ext cx="3572374" cy="5096586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>543473</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>115031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Obraz 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA71977-BC0F-32B7-630C-307E2E1ED73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="16344900"/>
+          <a:ext cx="3924848" cy="5239481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>86234</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>48332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Obraz 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8075954D-88A6-9D97-8539-9CBD6CA736F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="22717125"/>
+          <a:ext cx="3648584" cy="5068007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>524383</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>57856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Obraz 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFF08B4-4FF2-96B2-5837-21755C6ECA0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="22736175"/>
+          <a:ext cx="3639058" cy="5058481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191037</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>57884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Obraz 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4C5E83-B549-59CA-404E-16CE2D5AEDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29375100"/>
+          <a:ext cx="3848637" cy="5258534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76744</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>181694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Obraz 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B300D2AE-D050-BBEF-AEAD-CE3650683543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="29603700"/>
+          <a:ext cx="3896269" cy="5153744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57668</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>143774</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Obraz 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BFDDCC-9086-C557-F99C-5819CA0BB472}"/>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Obraz 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C18528-08EF-CBDC-6C42-FCC69A00568D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1895475"/>
+          <a:ext cx="3715268" cy="5153744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352933</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>67384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Obraz 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FA6B2C-20B4-E668-0618-25E7540451A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="1828800"/>
+          <a:ext cx="3639058" cy="5077534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114826</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>86465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Obraz 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC17FCDD-1C57-6532-E052-C4937D234A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9029700"/>
+          <a:ext cx="3772426" cy="5306165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133866</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>86443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Obraz 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49178014-D50B-AC92-E760-8DA9BECC40C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="9001125"/>
+          <a:ext cx="3696216" cy="5144218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>562479</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>124539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Obraz 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E65D3BC-9DC6-F510-A886-26E9B4830C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16097250"/>
+          <a:ext cx="3610479" cy="5115639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>562503</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>57881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Obraz 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663AF39B-C5EF-E366-FDC7-917DF3E1FA11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="16097250"/>
+          <a:ext cx="3781953" cy="5239481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>486268</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>29289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Obraz 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC76AE5-E75B-48FE-90C7-5DAE883668F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22650450"/>
+          <a:ext cx="3534268" cy="5115639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486274</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>48344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Obraz 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC339C66-9B22-2E72-4054-7604A4FEF554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="22631400"/>
+          <a:ext cx="3572374" cy="5153744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>543426</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>181694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Obraz 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A02B848-EAAC-81C4-85A5-E6B5E5215462}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,8 +3294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29041725"/>
-          <a:ext cx="3715268" cy="6439799"/>
+          <a:off x="0" y="29413200"/>
+          <a:ext cx="3591426" cy="5153744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,22 +3307,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>267228</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>86637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Obraz 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E192E8-8A5A-9812-6E42-E3539516DBC8}"/>
+      <xdr:colOff>495807</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>143590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Obraz 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0370ED1E-1619-0677-FDDF-A66C47346A1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,8 +3338,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="29079825"/>
-          <a:ext cx="3781953" cy="6535062"/>
+          <a:off x="4791075" y="29403675"/>
+          <a:ext cx="3629532" cy="5125165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2760,115 +3657,115 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="19" spans="16:17" x14ac:dyDescent="0.25">
       <c r="Q19">
@@ -2904,72 +3801,72 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
     </row>
     <row r="113" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
     </row>
     <row r="148" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2990,347 +3887,347 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9FE013-D37D-4AAB-889F-C7BA0ED3CDC3}">
   <dimension ref="A1:AB165"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScale="80" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="P7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="P7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
     </row>
     <row r="43" spans="1:28" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="P43" s="1" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="P43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
     </row>
     <row r="78" spans="1:28" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="P78" s="1" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="P78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
     </row>
     <row r="113" spans="1:28" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="P113" s="1" t="s">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="P113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="X113" s="1"/>
-      <c r="Y113" s="1"/>
-      <c r="Z113" s="1"/>
-      <c r="AA113" s="1"/>
-      <c r="AB113" s="1"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
     </row>
     <row r="148" spans="1:28" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="P148" s="1" t="s">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="P148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="W148" s="1"/>
-      <c r="X148" s="1"/>
-      <c r="Y148" s="1"/>
-      <c r="Z148" s="1"/>
-      <c r="AA148" s="1"/>
-      <c r="AB148" s="1"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2"/>
+      <c r="V148" s="2"/>
+      <c r="W148" s="2"/>
+      <c r="X148" s="2"/>
+      <c r="Y148" s="2"/>
+      <c r="Z148" s="2"/>
+      <c r="AA148" s="2"/>
+      <c r="AB148" s="2"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
@@ -3363,190 +4260,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614304F4-1DF6-414D-A1EA-01420614E618}">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T150" sqref="T150"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
     </row>
     <row r="113" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
     </row>
     <row r="148" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3565,192 +4462,330 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAD3D5D-407D-4CC1-8639-FF627053748C}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T150" sqref="T150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q10">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="R10">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="Q11">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="R11">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Q12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.09</v>
+      </c>
+      <c r="R13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>3.1E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.01</v>
+      </c>
+      <c r="R14">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="R15">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R16">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Q17">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="R17">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="18" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q18">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R18">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="19" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q19">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R19">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="20" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="1">
+        <f>AVERAGE(P10:P19)</f>
+        <v>5.1400000000000015E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:R20" si="0">AVERAGE(Q10:Q19)</f>
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83000000000000007</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
     </row>
     <row r="113" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
     </row>
     <row r="148" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3763,6 +4798,7 @@
     <mergeCell ref="A113:M113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3770,190 +4806,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7C5F3F-353A-4B55-8229-4EB0B5802120}">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
     </row>
     <row r="113" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
     </row>
     <row r="148" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3974,122 +5010,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA2EED3-D591-4597-A96B-5113B34CA48D}">
   <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P8" t="s">
@@ -4104,10 +5140,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P9">
-        <v>0.38</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q9">
-        <v>0.18</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="R9">
         <v>0.4</v>
@@ -4115,10 +5151,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P10">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="Q10">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="R10">
         <v>0.99</v>
@@ -4126,10 +5162,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P11">
-        <v>0.55000000000000004</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q11">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="R11">
         <v>0.4</v>
@@ -4137,10 +5173,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P12">
-        <v>0.26</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q12">
-        <v>0.23</v>
+        <v>2.3E-2</v>
       </c>
       <c r="R12">
         <v>0.4</v>
@@ -4148,10 +5184,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P13">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Q13">
-        <v>0.28000000000000003</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="R13">
         <v>0.4</v>
@@ -4159,10 +5195,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P14">
-        <v>0.13</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R14">
         <v>0.77</v>
@@ -4170,10 +5206,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P15">
-        <v>0.94</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Q15">
-        <v>0.89</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="R15">
         <v>0.4</v>
@@ -4181,10 +5217,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P16">
-        <v>0.47</v>
+        <v>4.7E-2</v>
       </c>
       <c r="Q16">
-        <v>0.43</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="R16">
         <v>0.99</v>
@@ -4192,10 +5228,10 @@
     </row>
     <row r="17" spans="15:18" x14ac:dyDescent="0.25">
       <c r="P17">
-        <v>0.76</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="Q17">
-        <v>0.98</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="R17">
         <v>0.47</v>
@@ -4203,116 +5239,116 @@
     </row>
     <row r="18" spans="15:18" x14ac:dyDescent="0.25">
       <c r="P18">
-        <v>0.11</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="Q18">
-        <v>0.69</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="R18">
         <v>0.79</v>
       </c>
     </row>
     <row r="19" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="3">
         <f>AVERAGE(P9:P18)</f>
-        <v>0.49000000000000005</v>
-      </c>
-      <c r="Q19" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q19" s="3">
         <f t="shared" ref="Q19:R19" si="0">AVERAGE(Q9:Q18)</f>
-        <v>0.61299999999999988</v>
-      </c>
-      <c r="R19" s="2">
+        <v>6.13E-2</v>
+      </c>
+      <c r="R19" s="3">
         <f t="shared" si="0"/>
         <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="20" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="1">
         <f>MEDIAN(P9:P18)</f>
-        <v>0.435</v>
-      </c>
-      <c r="Q20" s="2">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="Q20" s="1">
         <f t="shared" ref="Q20:R20" si="1">MEDIAN(Q9:Q18)</f>
-        <v>0.72</v>
-      </c>
-      <c r="R20" s="2">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="1"/>
         <v>0.435</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
     </row>
     <row r="113" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
     </row>
     <row r="148" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4325,5 +5361,6 @@
     <mergeCell ref="A113:M113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>